--- a/research-paper/data source/問卷回應.xlsx
+++ b/research-paper/data source/問卷回應.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\Goldhouse\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B799B86F-5E8D-42D4-AC29-22A1FBC42393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA0CBC-210D-40ED-B8B8-53F3233D6F95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{F4A7B13E-7310-4EFD-977E-448543655ECA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="1" xr2:uid="{F4A7B13E-7310-4EFD-977E-448543655ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$W$56</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">工作表2!$B$7:$E$7</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">工作表2!$B$8:$E$8</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">工作表2!$B$7:$E$7</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">工作表2!$B$8:$E$8</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">工作表2!$B$7:$E$7</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">工作表2!$B$8:$E$8</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">工作表2!$B$7:$E$7</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">工作表2!$B$8:$E$8</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">工作表2!$B$7:$E$7</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">工作表2!$B$8:$E$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -409,10 +419,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重複刊登物件訊息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -568,11 +574,15 @@
     <t xml:space="preserve"> 房仲騷擾</t>
   </si>
   <si>
-    <t>無過濾房源(ex:刊登照片與實際不一樣)</t>
+    <t>重複刊登</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>篩選功能不完善(ex:捷運數量有限制、只能選擇一條捷運線)</t>
+    <t>無過濾房源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>篩選功能不完善</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -728,6 +738,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD8B2E4"/>
+      <color rgb="FFC083D3"/>
+      <color rgb="FFAA58C4"/>
+      <color rgb="FF903CAA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -737,6 +755,1828 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US">
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>問卷調查</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW">
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US">
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>租房人數概況</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28283406881832079"/>
+          <c:y val="0.23325787401574799"/>
+          <c:w val="0.44165786968936577"/>
+          <c:h val="0.55820647419072611"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-D09E-4C5B-A9DD-BBDA6BE7C999}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D09E-4C5B-A9DD-BBDA6BE7C999}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14771220905079172"/>
+                  <c:y val="-0.2794967556138816"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.2021917808219178"/>
+                      <c:h val="0.16296296296296295"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D09E-4C5B-A9DD-BBDA6BE7C999}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8748233393902689E-2"/>
+                  <c:y val="0.12167413969087197"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22176125244618394"/>
+                      <c:h val="0.16296296296296295"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D09E-4C5B-A9DD-BBDA6BE7C999}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表2!$C$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>租房</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>沒租房</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表2!$C$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D09E-4C5B-A9DD-BBDA6BE7C999}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v2.2</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v2.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>問卷調查</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>各平台缺點</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{41B21158-E77B-4F3D-AE43-43967D0765CB}">
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="AA58C4"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C083D3"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C083D3"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D8B2E4"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="新細明體" panose="02020500000000000000" pitchFamily="18" charset="-120"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1200">
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC162F8-4AF1-4C6A-B3A1-9CE16D45F681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347008</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>205629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319741</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141382</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="圖表 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FFA857-2743-4CDD-AB7C-8A4EE3005B42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="347008" y="1938805"/>
+              <a:ext cx="4582086" cy="2752165"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1038,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA8F394-11FC-4151-AFE8-B75893DAE05A}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
@@ -1335,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>16</v>
@@ -1384,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>16</v>
@@ -3442,15 +5282,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746BED3A-8E45-4811-8077-CEBDC4FB0D1F}">
-  <dimension ref="B1:D14"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>70</v>
       </c>
@@ -3461,61 +5307,50 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2">
-        <v>55</v>
+        <f>C2+D2</f>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <f>B2-C2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/research-paper/data source/問卷回應.xlsx
+++ b/research-paper/data source/問卷回應.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\Goldhouse\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA0CBC-210D-40ED-B8B8-53F3233D6F95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6977787-63DA-4BF2-9A6F-997F95A03A28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" activeTab="1" xr2:uid="{F4A7B13E-7310-4EFD-977E-448543655ECA}"/>
   </bookViews>
@@ -26,8 +26,6 @@
     <definedName name="_xlchart.v2.5" hidden="1">工作表2!$B$8:$E$8</definedName>
     <definedName name="_xlchart.v2.6" hidden="1">工作表2!$B$7:$E$7</definedName>
     <definedName name="_xlchart.v2.7" hidden="1">工作表2!$B$8:$E$8</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">工作表2!$B$7:$E$7</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">工作表2!$B$8:$E$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -346,10 +344,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>租房</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -585,12 +579,16 @@
     <t>篩選功能不完善</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>有租房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -663,6 +661,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -701,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +739,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -740,6 +750,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEBD7F1"/>
       <color rgb="FFD8B2E4"/>
       <color rgb="FFC083D3"/>
       <color rgb="FFAA58C4"/>
@@ -778,7 +789,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -791,21 +802,21 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
                 <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               </a:rPr>
               <a:t>問卷調查</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW">
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600">
                 <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               </a:rPr>
               <a:t>-</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600">
                 <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               </a:rPr>
@@ -827,7 +838,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -861,6 +872,7 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="8"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -906,10 +918,75 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14771220905079172"/>
-                  <c:y val="-0.2794967556138816"/>
+                  <c:x val="0.10559396901209064"/>
+                  <c:y val="-0.12495114264458872"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{5C715844-5213-4C61-B9DB-0C52E898DAD8}" type="CATEGORYNAME">
+                      <a:rPr lang="zh-TW" altLang="en-US">
+                        <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr sz="1400">
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[類別名稱]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{67A02C4B-4EFA-41C7-A937-ADAC7D5F2A58}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1400">
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{BD93DCE5-C5BB-4C4C-9A7D-08806A6EC6D3}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1400">
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[百分比]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -919,7 +996,7 @@
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
+                  <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
@@ -941,7 +1018,7 @@
               </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
+              <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
@@ -950,10 +1027,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.2021917808219178"/>
-                      <c:h val="0.16296296296296295"/>
+                      <c:w val="0.20219164437998341"/>
+                      <c:h val="0.31520186624200114"/>
                     </c:manualLayout>
                   </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-D09E-4C5B-A9DD-BBDA6BE7C999}"/>
@@ -964,10 +1043,93 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.8748233393902689E-2"/>
-                  <c:y val="0.12167413969087197"/>
+                  <c:x val="-7.8748269164750709E-2"/>
+                  <c:y val="0.19318029457408356"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr" rtl="0">
+                      <a:defRPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{D42236CF-8CF5-4296-81AA-6B784E750DEB}" type="CATEGORYNAME">
+                      <a:rPr lang="zh-TW" altLang="en-US">
+                        <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr" rtl="0">
+                        <a:defRPr lang="en-US" altLang="zh-TW" sz="1400">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:sysClr>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[類別名稱]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{95F97828-40E8-427E-B283-B333ED2D1252}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                      <a:pPr algn="ctr" rtl="0">
+                        <a:defRPr lang="en-US" altLang="zh-TW" sz="1400">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:sysClr>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{4D85F4D2-CCC3-428D-A100-FBDCFCF59CAC}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                      <a:pPr algn="ctr" rtl="0">
+                        <a:defRPr lang="en-US" altLang="zh-TW" sz="1400">
+                          <a:solidFill>
+                            <a:sysClr val="windowText" lastClr="000000">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:sysClr>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[百分比]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -977,7 +1139,7 @@
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                  <a:spAutoFit/>
+                  <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
@@ -999,7 +1161,7 @@
               </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
+              <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
@@ -1008,10 +1170,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.22176125244618394"/>
-                      <c:h val="0.16296296296296295"/>
+                      <c:w val="0.2217611809044879"/>
+                      <c:h val="0.30597527272938613"/>
                     </c:manualLayout>
                   </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-D09E-4C5B-A9DD-BBDA6BE7C999}"/>
@@ -1049,7 +1213,7 @@
             </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
@@ -1079,7 +1243,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>租房</c:v>
+                  <c:v>有租房</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>沒租房</c:v>
@@ -1200,10 +1364,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v2.2</cx:f>
+        <cx:f dir="row">_xlchart.v2.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v2.3</cx:f>
+        <cx:f dir="row">_xlchart.v2.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1215,10 +1379,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -1231,7 +1395,7 @@
               <a:t>問卷調查</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -1244,7 +1408,7 @@
               <a:t>-</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -1266,28 +1430,28 @@
           <cx:dataPt idx="0">
             <cx:spPr>
               <a:solidFill>
-                <a:srgbClr val="AA58C4"/>
+                <a:srgbClr val="C083D3"/>
               </a:solidFill>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="1">
             <cx:spPr>
               <a:solidFill>
-                <a:srgbClr val="C083D3"/>
+                <a:srgbClr val="D8B2E4"/>
               </a:solidFill>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="2">
             <cx:spPr>
               <a:solidFill>
-                <a:srgbClr val="C083D3"/>
+                <a:srgbClr val="D8B2E4"/>
               </a:solidFill>
             </cx:spPr>
           </cx:dataPt>
           <cx:dataPt idx="3">
             <cx:spPr>
               <a:solidFill>
-                <a:srgbClr val="D8B2E4"/>
+                <a:srgbClr val="EBD7F1"/>
               </a:solidFill>
             </cx:spPr>
           </cx:dataPt>
@@ -1297,13 +1461,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1400">
+                  <a:defRPr sz="1800">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1321,7 +1485,7 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.0599999987"/>
         <cx:tickLabels/>
         <cx:txPr>
@@ -1329,13 +1493,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1200">
+              <a:defRPr sz="1400">
                 <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:cs typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -2465,15 +2629,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
+      <xdr:colOff>500529</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>113366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>305547</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:rowOff>49866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2545,8 +2709,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="347008" y="1938805"/>
-              <a:ext cx="4582086" cy="2752165"/>
+              <a:off x="347008" y="1932829"/>
+              <a:ext cx="4576483" cy="2742453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2985,7 +3149,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>3</v>
@@ -3175,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>16</v>
@@ -3224,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>16</v>
@@ -5284,8 +5448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746BED3A-8E45-4811-8077-CEBDC4FB0D1F}">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -5298,13 +5462,13 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
@@ -5320,17 +5484,17 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
